--- a/medicine/Enfance/Fonfrède_et_Becker/Fonfrède_et_Becker.xlsx
+++ b/medicine/Enfance/Fonfrède_et_Becker/Fonfrède_et_Becker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fonfr%C3%A8de_et_Becker</t>
+          <t>Fonfrède_et_Becker</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fonfrède et Becker est un duo musical  français composé de Claude Fonfrède et Dominique Becker.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fonfr%C3%A8de_et_Becker</t>
+          <t>Fonfrède_et_Becker</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après avoir mené une carrière solo, au début de laquelle il est apparu par exemple en présence de Pascal Sevran au Petit Conservatoire de Mireille[1], Claude Fonfrède a composé et interprété plusieurs albums en duo avec Jacqueline Pons[2]. Il est aussi auteur de musiques de films. Il fonde un duo musical avec Dominique Becker. Cette dernière a été, comme lui, également actrice de façon occasionnelle. Le duo a notamment réalisé plusieurs albums de comptines pour enfants.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir mené une carrière solo, au début de laquelle il est apparu par exemple en présence de Pascal Sevran au Petit Conservatoire de Mireille, Claude Fonfrède a composé et interprété plusieurs albums en duo avec Jacqueline Pons. Il est aussi auteur de musiques de films. Il fonde un duo musical avec Dominique Becker. Cette dernière a été, comme lui, également actrice de façon occasionnelle. Le duo a notamment réalisé plusieurs albums de comptines pour enfants.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fonfr%C3%A8de_et_Becker</t>
+          <t>Fonfrède_et_Becker</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Discographie du duo</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Chansons en l'air, SFPP
 Derrière la porte, SFPP
